--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2889323.428872711</v>
+        <v>2964853.098537516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8960035.730364891</v>
+        <v>8960035.730364893</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>57.03835618884047</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>145.0450872985371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>203.1829210524914</v>
+        <v>39.58626266897635</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>223.8105181550463</v>
+        <v>87.31041727175139</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>83.97130619250098</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>223.8243835520302</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>5.459485109099178</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>166.7328750578494</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>9.220846587376188</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>132.997194893274</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>57.56452900498746</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.04948275676986</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.78559640792034</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>20.81531099655723</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.63541896917923</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.1070712557083</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>165.7299368928108</v>
       </c>
       <c r="W22" t="n">
-        <v>204.6725159400147</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.5277806440435</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>139.4319924052467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>30.40674359638268</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>31.5707067867075</v>
       </c>
       <c r="H31" t="n">
-        <v>131.2559818365513</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>23.79288947920052</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.2489570623205</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>61.81052995517282</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>191.9276327024871</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>4.479780718846232</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>207.5780900046804</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>33.92757820193509</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.9420810345229</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>76.57971109536301</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.840380066451</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1386.090004781549</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C2" t="n">
-        <v>1017.127487841138</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="D2" t="n">
-        <v>1017.127487841138</v>
+        <v>1011.150732460067</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>625.3624798618225</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>618.4169791126191</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>200.4531710108059</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>200.4531710108059</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4372,10 @@
         <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.090004781549</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>493.4767912696608</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>688.1428602983775</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.526533804879</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2076.265705844813</v>
+        <v>2300.16627550827</v>
       </c>
       <c r="W5" t="n">
-        <v>2076.265705844813</v>
+        <v>1947.397620238156</v>
       </c>
       <c r="X5" t="n">
-        <v>2076.265705844813</v>
+        <v>1947.397620238156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.126373869001</v>
+        <v>1947.397620238156</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>275.0913939262626</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>275.0913939262626</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>275.0913939262626</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>275.0913939262626</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.566937845283</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>946.7754666214612</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2056.335593115397</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1703.566937845283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1703.566937845283</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1703.566937845283</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4893,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>593.7883833041373</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U10" t="n">
-        <v>593.7883833041373</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V10" t="n">
-        <v>593.7883833041373</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W10" t="n">
-        <v>593.7883833041373</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X10" t="n">
-        <v>593.7883833041373</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>63.2569682722596</v>
       </c>
     </row>
     <row r="11">
@@ -5015,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433115</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.6134626728254</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y13" t="n">
-        <v>710.6134626728254</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5291,19 +5293,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
         <v>2123.441607278215</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>496.665036439558</v>
+        <v>564.4843764226426</v>
       </c>
       <c r="C16" t="n">
-        <v>327.7288535116511</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D16" t="n">
-        <v>327.7288535116511</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W16" t="n">
-        <v>496.665036439558</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="X16" t="n">
-        <v>496.665036439558</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="Y16" t="n">
-        <v>496.665036439558</v>
+        <v>564.4843764226426</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>731.3351829786183</v>
+        <v>641.8707282937983</v>
       </c>
       <c r="C19" t="n">
-        <v>562.3990000507114</v>
+        <v>472.9345453658914</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>472.9345453658914</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>325.0214517834983</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>325.0214517834983</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>325.0214517834983</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141521</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X19" t="n">
-        <v>1020.446367141521</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y19" t="n">
-        <v>799.6537879979912</v>
+        <v>823.519193124038</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>2648.155597771317</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>3262.052667528206</v>
       </c>
       <c r="M21" t="n">
-        <v>1689.561836756086</v>
+        <v>3569.372800808168</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>3899.235428472201</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.5778132641556</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
         <v>208.7516828383384</v>
@@ -5905,19 +5907,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>907.806868603556</v>
       </c>
       <c r="W22" t="n">
-        <v>524.5778132641556</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X22" t="n">
-        <v>524.5778132641556</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y22" t="n">
-        <v>524.5778132641556</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,16 +6007,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>3907.324136615209</v>
       </c>
       <c r="N24" t="n">
-        <v>2013.406634128704</v>
+        <v>4237.186764279241</v>
       </c>
       <c r="O24" t="n">
-        <v>2292.946699347402</v>
+        <v>4516.726829497939</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4036.934124172601</v>
+        <v>4075.516172206886</v>
       </c>
       <c r="C25" t="n">
-        <v>3867.997941244694</v>
+        <v>3906.579989278979</v>
       </c>
       <c r="D25" t="n">
-        <v>3867.997941244694</v>
+        <v>3756.463349866644</v>
       </c>
       <c r="E25" t="n">
-        <v>3867.997941244694</v>
+        <v>3756.463349866644</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929845</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U25" t="n">
-        <v>4660.934562929845</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="V25" t="n">
-        <v>4660.934562929845</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="W25" t="n">
-        <v>4371.517392892884</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="X25" t="n">
-        <v>4143.527841994867</v>
+        <v>4296.308751350416</v>
       </c>
       <c r="Y25" t="n">
-        <v>4143.527841994867</v>
+        <v>4075.516172206886</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,25 +6220,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6247,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646855</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3806.718552847563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3637.782369919657</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3637.782369919657</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3489.869276337263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3489.869276337263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3489.869276337263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.14914771935</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4437.14914771935</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>4437.14914771935</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>4209.159596821333</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>3988.367017677803</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6457,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6545,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.7185717878253</v>
+        <v>3919.428864619883</v>
       </c>
       <c r="C31" t="n">
-        <v>674.7185717878253</v>
+        <v>3750.492681691976</v>
       </c>
       <c r="D31" t="n">
-        <v>524.6019323754896</v>
+        <v>3750.492681691976</v>
       </c>
       <c r="E31" t="n">
-        <v>376.6888387930965</v>
+        <v>3602.579588109583</v>
       </c>
       <c r="F31" t="n">
-        <v>229.7988912951861</v>
+        <v>3602.579588109583</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7988912951861</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V31" t="n">
-        <v>964.135741824786</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W31" t="n">
-        <v>674.7185717878253</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="X31" t="n">
-        <v>674.7185717878253</v>
+        <v>4321.869908593653</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.7185717878253</v>
+        <v>4101.077329450123</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>2969.450898153559</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>3276.77103143352</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>4081.182609697671</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>271.6683216085047</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4693.936434567504</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>4404.807795781062</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.867621687013</v>
+        <v>4150.123307575175</v>
       </c>
       <c r="W34" t="n">
-        <v>720.4504516500522</v>
+        <v>4150.123307575175</v>
       </c>
       <c r="X34" t="n">
-        <v>492.4609007520348</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="Y34" t="n">
-        <v>271.6683216085047</v>
+        <v>3922.133756677158</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6916,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7020,19 +7022,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>2315.738453580939</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P36" t="n">
-        <v>2520.760934363149</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3777.44735500919</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="C37" t="n">
-        <v>3777.44735500919</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D37" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E37" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
         <v>3459.155393916675</v>
@@ -7117,28 +7119,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>4798.419694271694</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>4798.419694271694</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>4574.634279061199</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705228</v>
+        <v>4574.634279061199</v>
       </c>
       <c r="V37" t="n">
-        <v>4260.730820705228</v>
+        <v>4319.949790855312</v>
       </c>
       <c r="W37" t="n">
-        <v>3971.313650668268</v>
+        <v>4030.532620818351</v>
       </c>
       <c r="X37" t="n">
-        <v>3777.44735500919</v>
+        <v>4030.532620818351</v>
       </c>
       <c r="Y37" t="n">
-        <v>3777.44735500919</v>
+        <v>3809.740041674821</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7259,22 @@
         <v>2786.879505108311</v>
       </c>
       <c r="L39" t="n">
-        <v>3033.644633014775</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M39" t="n">
-        <v>3340.964766294737</v>
+        <v>3948.666484794829</v>
       </c>
       <c r="N39" t="n">
-        <v>4145.376344558887</v>
+        <v>4278.529112458862</v>
       </c>
       <c r="O39" t="n">
-        <v>4424.916409777585</v>
+        <v>4558.069177677559</v>
       </c>
       <c r="P39" t="n">
-        <v>4629.938890559794</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R39" t="n">
         <v>4860.854573014292</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.0340835819385</v>
+        <v>3759.690041781067</v>
       </c>
       <c r="C40" t="n">
-        <v>420.0340835819385</v>
+        <v>3759.690041781067</v>
       </c>
       <c r="D40" t="n">
-        <v>269.9174441696028</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="E40" t="n">
-        <v>269.9174441696028</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F40" t="n">
-        <v>269.9174441696028</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G40" t="n">
-        <v>101.7421224894235</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H40" t="n">
-        <v>101.7421224894235</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188992</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W40" t="n">
-        <v>420.0340835819385</v>
+        <v>4162.131085754837</v>
       </c>
       <c r="X40" t="n">
-        <v>420.0340835819385</v>
+        <v>4162.131085754837</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.0340835819385</v>
+        <v>3941.338506611307</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028559</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7496,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>2279.445761859783</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.8250614170374</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1076.832542256765</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1076.832542256765</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y43" t="n">
-        <v>726.8250614170374</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="44">
@@ -7631,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7728,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N45" t="n">
-        <v>1925.508393158044</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O45" t="n">
-        <v>2205.048458376741</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>4113.526506455544</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>4113.526506455544</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>4113.526506455544</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="W46" t="n">
-        <v>865.0520438420759</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="X46" t="n">
-        <v>637.0624929440586</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="Y46" t="n">
-        <v>416.2699138005285</v>
+        <v>4295.174971285784</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>158.8724419039332</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>213.2603911806621</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>38.86002301949878</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863213</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>32.781406563524</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>38.86002301949887</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>223.6742649934478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10191,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>297.3877236703345</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>199.6230805871076</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>15.83804904622824</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>242.9997743936035</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.2351313103784</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>41.75994765618373</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>358.3520020925044</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>127.646125010065</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>91.34929936254866</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.5351705953249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>63.64836623864883</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>197.7693423555376</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.1965612127581</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>33.80675711182782</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>86.4077064310172</v>
       </c>
       <c r="W22" t="n">
-        <v>81.85048239657627</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.30419953789379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>86.27766298379041</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>118.5070847711534</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>134.9228616766701</v>
       </c>
       <c r="H31" t="n">
-        <v>17.65784653098487</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>143.4539316194273</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>56.29860399606878</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>48.15382244861997</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.78202268655008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.9394647454258</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>78.94490833191063</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>133.3192428966927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>1.605480023866306</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>69.85425155120616</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>132.68261827014</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
         <v>625646.4955803339</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803344</v>
-      </c>
       <c r="K2" t="n">
-        <v>625646.4955803346</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803342</v>
@@ -26347,13 +26349,13 @@
         <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26430,13 +26432,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26445,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730516</v>
+        <v>-181626.4091730518</v>
       </c>
       <c r="C6" t="n">
-        <v>408341.4700414927</v>
+        <v>408341.4700414925</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414926</v>
+        <v>408341.4700414925</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214963</v>
+        <v>-13675.47443214928</v>
       </c>
       <c r="F6" t="n">
         <v>511484.5620447466</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447469</v>
+        <v>511484.5620447468</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447467</v>
+        <v>511484.5620447465</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447469</v>
+        <v>511484.5620447472</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521542</v>
+        <v>335061.3428521539</v>
       </c>
       <c r="K6" t="n">
-        <v>511484.5620447473</v>
+        <v>511484.5620447468</v>
       </c>
       <c r="L6" t="n">
         <v>511484.5620447469</v>
       </c>
       <c r="M6" t="n">
-        <v>376683.5468109097</v>
+        <v>376683.5468109096</v>
       </c>
       <c r="N6" t="n">
-        <v>511484.5620447467</v>
+        <v>511484.5620447472</v>
       </c>
       <c r="O6" t="n">
-        <v>511484.5620447471</v>
+        <v>511484.5620447469</v>
       </c>
       <c r="P6" t="n">
-        <v>511484.5620447472</v>
+        <v>511484.5620447469</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>324.8920138834213</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.886228946324195</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>48.95472227133661</v>
+        <v>212.5513806548516</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>103.9417403150886</v>
+        <v>240.4418411983835</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>83.33849606654994</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>28.31325977179779</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>349.2235565115838</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>161.0193834122855</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>146.9500422544189</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>92.03791056481029</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,13 +35017,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>365.9658568354579</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>747.6947913160968</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>495.6240934217703</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>349.2844000699651</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742607</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>365.975979961537</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>245.9534379510236</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>472.9319699494721</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,10 +36843,10 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36911,28 +36913,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>607.8121007208008</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37151,13 +37153,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>448.8807855431319</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37166,7 +37168,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.8510818313024</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37625,13 +37627,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>553.4241514440698</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37640,10 +37642,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.2481640954525</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37862,7 +37864,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
@@ -37871,16 +37873,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>248.8533625877084</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>668.7763791429707</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7395399415897</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964853.098537516</v>
+        <v>2957836.083645805</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8960035.730364893</v>
+        <v>8960035.730364891</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>211.0025011558364</v>
       </c>
       <c r="I2" t="n">
-        <v>145.0450872985371</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.838563623422169</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>39.58626266897635</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>13.15972490571568</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>87.31041727175139</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>223.8243835520302</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>5.459485109099178</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>91.222059622457</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="H10" t="n">
-        <v>9.220846587376188</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051994</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.56452900498746</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>76.29265143987267</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>145.8066325228122</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.81531099655723</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.1070712557083</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>165.7299368928108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>139.4319924052467</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>197.1444647762791</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>31.5707067867075</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>60.61661699143696</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>165.2489570623205</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.9682111650733</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>61.81052995517282</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.46707130753651</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>207.5780900046804</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9420810345229</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>76.57971109536301</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.416431066817</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.416431066817</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.150732460067</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3624798618225</v>
+        <v>1249.492510268045</v>
       </c>
       <c r="F2" t="n">
-        <v>618.4169791126191</v>
+        <v>838.5066054784379</v>
       </c>
       <c r="G2" t="n">
-        <v>200.4531710108059</v>
+        <v>420.5427973766248</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4531710108059</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.4943954681378</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="C4" t="n">
-        <v>506.4943954681378</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>723.2415462029775</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>723.2415462029775</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>723.2415462029775</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="V4" t="n">
-        <v>688.1428602983775</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="W4" t="n">
-        <v>688.1428602983775</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="X4" t="n">
-        <v>688.1428602983775</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.1428602983775</v>
+        <v>495.9333588715792</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1560.797780174034</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2300.16627550827</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.397620238156</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1947.397620238156</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1947.397620238156</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561873</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>946.7754666214612</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>487.2046004139091</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>473.2811963525</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>146.0864763885028</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625995</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.2569682722596</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>63.2569682722596</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>63.2569682722596</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>63.2569682722596</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F10" t="n">
-        <v>63.2569682722596</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G10" t="n">
-        <v>63.2569682722596</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>63.2569682722596</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>63.2569682722596</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.2569682722596</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5041,28 +5041,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.3630803542126</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3630803542126</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>155.3630803542126</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>155.3630803542126</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>155.3630803542126</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3630803542126</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1132.724347488761</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>843.3071774518004</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279824</v>
+        <v>615.317626553783</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.0115451844523</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514086</v>
@@ -5311,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5360,22 +5360,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>485.5200852635867</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226426</v>
+        <v>244.4965182510053</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947357</v>
+        <v>244.4965182510053</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947357</v>
+        <v>244.4965182510053</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>244.4965182510053</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>244.4965182510053</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5439,10 +5439,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5475,13 +5475,13 @@
         <v>874.9271131227924</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858318</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X16" t="n">
-        <v>585.5099430858318</v>
+        <v>646.9375622247751</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.4843764226426</v>
+        <v>426.144983081245</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
@@ -5527,34 +5527,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.8707282937983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9345453658914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>472.9345453658914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>325.0214517834983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>325.0214517834983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>325.0214517834983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267568</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.311772267568</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.519193124038</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,19 +5743,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2648.155597771317</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>3262.052667528206</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M21" t="n">
-        <v>3569.372800808168</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N21" t="n">
-        <v>3899.235428472201</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.69918977486</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
@@ -5943,19 +5943,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>907.806868603556</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>618.3896985665954</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5989,19 +5989,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6022,13 +6022,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3138.955990222747</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>3907.324136615209</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>4237.186764279241</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>4516.726829497939</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4075.516172206886</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>3906.579989278979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3756.463349866644</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.463349866644</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.149147719352</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4437.149147719352</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V25" t="n">
-        <v>4437.149147719352</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W25" t="n">
-        <v>4437.149147719352</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X25" t="n">
-        <v>4296.308751350416</v>
+        <v>646.9375622247751</v>
       </c>
       <c r="Y25" t="n">
-        <v>4075.516172206886</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,7 +6217,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,25 +6226,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372323</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>3484.747546292012</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556163</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.69918977486</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6384,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,31 +6402,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028587</v>
@@ -6451,16 +6451,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6478,22 +6478,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3919.428864619883</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>3750.492681691976</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>3750.492681691976</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>3602.579588109583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3602.579588109583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.85945949167</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V31" t="n">
-        <v>4549.85945949167</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W31" t="n">
-        <v>4549.85945949167</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X31" t="n">
-        <v>4321.869908593653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y31" t="n">
-        <v>4101.077329450123</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,37 +6712,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3922.133756677158</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C34" t="n">
-        <v>3922.133756677158</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D34" t="n">
-        <v>3922.133756677158</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E34" t="n">
-        <v>3774.220663094764</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4693.936434567504</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.807795781062</v>
+        <v>1271.675653219445</v>
       </c>
       <c r="V34" t="n">
-        <v>4150.123307575175</v>
+        <v>1016.991165013558</v>
       </c>
       <c r="W34" t="n">
-        <v>4150.123307575175</v>
+        <v>727.5739949765973</v>
       </c>
       <c r="X34" t="n">
-        <v>3922.133756677158</v>
+        <v>727.5739949765973</v>
       </c>
       <c r="Y34" t="n">
-        <v>3922.133756677158</v>
+        <v>506.7814158330672</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6952,34 +6952,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.698370483031</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4798.419694271694</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4798.419694271694</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4574.634279061199</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4574.634279061199</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4319.949790855312</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4030.532620818351</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4030.532620818351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3809.740041674821</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7159,16 +7159,16 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2786.879505108311</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>3400.7765748652</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>3948.666484794829</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>4278.529112458862</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>4558.069177677559</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3759.690041781067</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="C40" t="n">
-        <v>3759.690041781067</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="D40" t="n">
-        <v>3609.573402368731</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368731</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>4660.934562929845</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U40" t="n">
-        <v>4371.805924143403</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V40" t="n">
-        <v>4371.805924143403</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W40" t="n">
-        <v>4162.131085754837</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X40" t="n">
-        <v>4162.131085754837</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="Y40" t="n">
-        <v>3941.338506611307</v>
+        <v>420.3226148324578</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028559</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1076.832542256765</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1076.832542256765</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>822.1480540508779</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>822.1480540508779</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4113.526506455544</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4113.526506455544</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>4113.526506455544</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4549.85945949167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4295.174971285784</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4295.174971285784</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4295.174971285784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4295.174971285784</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.7396287231143</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>213.2603911806621</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119822</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>124.3400780863213</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>73.6485933827056</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772038</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.7396287231151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>242.9997743936035</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>358.3520020925044</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>91.34929936254866</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>175.8449918839553</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>20.68693594056541</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.7693423555376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>33.80675711182782</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>86.4077064310172</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>86.27766298379041</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>21.44018857581568</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>134.9228616766701</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>137.3041929921663</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>56.29860399606878</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.269141233504</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>48.15382244861997</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9668913390327</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>78.94490833191063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.605480023866306</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>69.85425155120616</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914264</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>625646.4955803343</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.495580334</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26432,25 +26432,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.6075868707</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.60758687066</v>
-      </c>
       <c r="I4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
         <v>22174.6075868707</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26484,19 +26484,19 @@
         <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730518</v>
+        <v>-181626.4091730516</v>
       </c>
       <c r="C6" t="n">
-        <v>408341.4700414925</v>
+        <v>408341.4700414928</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414925</v>
+        <v>408341.4700414927</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214928</v>
+        <v>-14650.06569187127</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447466</v>
+        <v>510509.9707850249</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447468</v>
+        <v>510509.9707850255</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447465</v>
+        <v>510509.9707850254</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447472</v>
+        <v>510509.9707850251</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521539</v>
+        <v>334086.7515924323</v>
       </c>
       <c r="K6" t="n">
-        <v>511484.5620447468</v>
+        <v>510509.9707850251</v>
       </c>
       <c r="L6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="M6" t="n">
-        <v>376683.5468109096</v>
+        <v>375708.955551188</v>
       </c>
       <c r="N6" t="n">
-        <v>511484.5620447472</v>
+        <v>510509.970785025</v>
       </c>
       <c r="O6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850251</v>
       </c>
       <c r="P6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850253</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="I2" t="n">
-        <v>6.886228946324195</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>24.28418633149214</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>212.5513806548516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>393.7163208359958</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>240.4418411983835</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>28.31325977179779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>349.2235565115838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>60.70925662240425</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="H10" t="n">
-        <v>146.9500422544189</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>350.3150673110537</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>495.6240934217703</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330527</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>274.9155166742607</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594837</v>
@@ -36211,13 +36211,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>406.8431667807187</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507419</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>259.5907485445772</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>287.7526615081892</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>553.4241514440698</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>668.7763791429707</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2957836.083645805</v>
+        <v>2962775.346494837</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>211.0025011558364</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>196.6482960948747</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.838563623422169</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>200.7509191265922</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.15972490571568</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>351.2391879744742</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9.728248008472399</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.6352909288865</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>91.222059622457</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>28.51033041214347</v>
+        <v>48.60603564323155</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051994</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39.54523647285885</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>76.29265143987267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8066325228122</v>
+        <v>81.90355835744658</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.1444647762791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>155.3283639695381</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>60.61661699143696</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>224.9682111650733</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4.46707130753651</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1249.492510268045</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>838.5066054784379</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>420.5427973766248</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.30827134281</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4509,13 +4509,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>723.2415462029775</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>723.2415462029775</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>723.2415462029775</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
         <v>495.9333588715792</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168839</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4606,13 +4606,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.885551920185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>232.7692952219031</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.76949496023556</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>494.1501011631125</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>494.1501011631125</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>487.2046004139091</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>473.2811963525</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>146.0864763885028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="E10" t="n">
-        <v>229.6312428658945</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="F10" t="n">
-        <v>82.74129536798412</v>
+        <v>103.0399875205983</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,10 +5056,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5199,7 +5199,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1132.724347488761</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>843.3071774518004</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>615.317626553783</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.5250474102529</v>
+        <v>437.6964226305963</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635867</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300437</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.4965182510053</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>244.4965182510053</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>244.4965182510053</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E16" t="n">
-        <v>244.4965182510053</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F16" t="n">
-        <v>244.4965182510053</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227924</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227924</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>874.9271131227924</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>646.9375622247751</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.144983081245</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,34 +5527,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>233.785243411008</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555207</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688073</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5779,10 +5779,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5968,7 +5968,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5980,55 +5980,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6074,16 +6074,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227924</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227924</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>874.9271131227924</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>646.9375622247751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,19 +6217,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,7 +6250,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>1031.023819692313</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>1031.023819692313</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>803.0342687942955</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>582.2416896507654</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011342</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
         <v>779.0639759471194</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1326.612261067772</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1326.612261067772</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1037.48362228133</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>782.7991340754431</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>493.3819640384826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6861,10 +6861,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.675653219445</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>1016.991165013558</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>727.5739949765973</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>727.5739949765973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,16 +7113,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,40 +7162,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324578</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324578</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>15.83804904622804</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231143</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119822</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>234.4116509503158</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2867437090785</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>175.8449918839553</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>20.68693594056541</v>
+        <v>84.590010105931</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.44018857581568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>96.80927935428986</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>137.3041929921663</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.269141233504</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>141.9668913390327</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="13">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803344</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="N2" t="n">
         <v>625646.495580334</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
         <v>22174.6075868707</v>
@@ -26450,10 +26450,10 @@
         <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730516</v>
+        <v>-181626.4091730517</v>
       </c>
       <c r="C6" t="n">
         <v>408341.4700414928</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414927</v>
+        <v>408341.4700414926</v>
       </c>
       <c r="E6" t="n">
-        <v>-14650.06569187127</v>
+        <v>-13772.9335581218</v>
       </c>
       <c r="F6" t="n">
-        <v>510509.9707850249</v>
+        <v>511387.1029187748</v>
       </c>
       <c r="G6" t="n">
-        <v>510509.9707850255</v>
+        <v>511387.1029187744</v>
       </c>
       <c r="H6" t="n">
-        <v>510509.9707850254</v>
+        <v>511387.1029187749</v>
       </c>
       <c r="I6" t="n">
-        <v>510509.9707850251</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="J6" t="n">
-        <v>334086.7515924323</v>
+        <v>334963.8837261813</v>
       </c>
       <c r="K6" t="n">
-        <v>510509.9707850251</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="L6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187749</v>
       </c>
       <c r="M6" t="n">
-        <v>375708.955551188</v>
+        <v>376586.0876849375</v>
       </c>
       <c r="N6" t="n">
-        <v>510509.970785025</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="O6" t="n">
-        <v>510509.9707850251</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="P6" t="n">
-        <v>510509.9707850253</v>
+        <v>511387.1029187746</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
@@ -26758,25 +26758,25 @@
         <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>112.9202716085207</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>19.80002426278313</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.28418633149214</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>24.28418633149209</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.7163208359958</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>62.54498204632074</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>146.4426408333227</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.1488790919085</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>60.70925662240425</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>138.7994718469074</v>
+        <v>118.7037666158194</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32958,13 +32958,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32979,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33107,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33119,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33195,13 +33195,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33216,7 +33216,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33344,10 +33344,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33356,7 +33356,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,13 +33368,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33432,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33453,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33581,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33593,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>326.2624260966944</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110537</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951474</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330527</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209233</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36366,22 +36366,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36606,19 +36606,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36843,19 +36843,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
@@ -36922,16 +36922,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914241</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056037</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37080,13 +37080,13 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
